--- a/TSV_stacked_3D_v4/air_cooling/inputs/tb_inputs.xlsx
+++ b/TSV_stacked_3D_v4/air_cooling/inputs/tb_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuca\Dropbox (GaTech)\PhD\projects\thermal_modeling\rram_3D\modeling\experiments\rram_journal\code\workstation\TSV_stacked_3D\v4\TSV_stacked_3D_v4\air_cooling\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/akaul33_gatech_edu/Documents/phd_files/projects/rram_3D_thermal/journal_sims/tsv_3D_inputs/2_tiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268409B7-A544-4FA4-9EB8-C6C1715F4D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3524D995-54E3-4327-BCA9-A44BA3CF35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{874C68EC-0168-424C-9B37-4FB16D04CD58}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="material_properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="draw" sheetId="4" r:id="rId5"/>
     <sheet name="block_layout_specs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,21 +40,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Conductivity (W/mK)</t>
+  </si>
+  <si>
+    <t>Specific heat capacity (J/K)</t>
+  </si>
+  <si>
+    <t>Density (kg/m2)</t>
+  </si>
+  <si>
+    <t>Molding</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>underfill</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>sio2</t>
+  </si>
+  <si>
+    <t>microbump</t>
+  </si>
+  <si>
+    <t>interposer</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>ceramic package property (FR4)</t>
+  </si>
+  <si>
+    <t>TIM</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
   <si>
     <t>system</t>
   </si>
   <si>
+    <t>hsp</t>
+  </si>
+  <si>
+    <t>Xsize</t>
+  </si>
+  <si>
+    <t>Ysize</t>
+  </si>
+  <si>
+    <t>Xgrid</t>
+  </si>
+  <si>
+    <t>Ygrid</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
     <t>chip</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>layer</t>
   </si>
   <si>
-    <t>hsp</t>
-  </si>
-  <si>
-    <t>pack</t>
+    <t>tim2</t>
+  </si>
+  <si>
+    <t>metal_portion</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
   <si>
     <t>num</t>
@@ -73,157 +162,109 @@
     <t>su_limit</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Xgrid</t>
-  </si>
-  <si>
-    <t>Ygrid</t>
-  </si>
-  <si>
-    <t>tim2</t>
-  </si>
-  <si>
-    <t>metal_portion</t>
-  </si>
-  <si>
-    <t>Xsize</t>
-  </si>
-  <si>
-    <t>Ysize</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Molding</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>underfill</t>
-  </si>
-  <si>
-    <t>copper</t>
-  </si>
-  <si>
-    <t>sio2</t>
-  </si>
-  <si>
-    <t>microbump</t>
-  </si>
-  <si>
-    <t>interposer</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>Conductivity (W/mK)</t>
-  </si>
-  <si>
-    <t>Specific heat capacity (J/K)</t>
-  </si>
-  <si>
-    <t>ceramic package property (FR4)</t>
-  </si>
-  <si>
-    <t>TIM</t>
-  </si>
-  <si>
-    <t>Density (kg/m2)</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>bridge</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>Chip number</t>
   </si>
   <si>
+    <t>Die parameters</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
+    <t>Die layer Information</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>tim</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>ild</t>
+  </si>
+  <si>
     <t>bump</t>
   </si>
   <si>
     <t>under</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>ild</t>
+    <t>Die size</t>
+  </si>
+  <si>
+    <t>Bump geometry</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Power information</t>
+  </si>
+  <si>
+    <t>p_metal</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Memory Tier</t>
+  </si>
+  <si>
+    <t>bl_x</t>
+  </si>
+  <si>
+    <t>bl_y</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>blk_num</t>
+  </si>
+  <si>
+    <t>TSV geometry</t>
+  </si>
+  <si>
     <t>liner</t>
   </si>
   <si>
-    <t>px</t>
-  </si>
-  <si>
-    <t>py</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>p_metal</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>bl_x</t>
-  </si>
-  <si>
-    <t>bl_y</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Die parameters</t>
-  </si>
-  <si>
-    <t>Die layer Information</t>
-  </si>
-  <si>
-    <t>Die size</t>
-  </si>
-  <si>
-    <t>TSV geometry</t>
-  </si>
-  <si>
-    <t>Bump geometry</t>
-  </si>
-  <si>
-    <t>Power information</t>
+    <t>Logic Tier</t>
+  </si>
+  <si>
+    <t>Convective boundary conditions (W/m2-K)</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>Ta</t>
   </si>
   <si>
     <t>Drawing parameters</t>
@@ -241,6 +282,12 @@
     <t>P</t>
   </si>
   <si>
+    <t>pdrange</t>
+  </si>
+  <si>
+    <t>pdclamp</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -259,45 +306,6 @@
     <t>clamp</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>Ta</t>
-  </si>
-  <si>
-    <t>Convective boundary conditions (W/m2-K)</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>pdrange</t>
-  </si>
-  <si>
-    <t>pdclamp</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Memory Tier</t>
-  </si>
-  <si>
-    <t>blk_num</t>
-  </si>
-  <si>
-    <t>Logic Tier</t>
-  </si>
-  <si>
     <t>General Parameters</t>
   </si>
   <si>
@@ -313,6 +321,9 @@
     <t>Power</t>
   </si>
   <si>
+    <t>chip size</t>
+  </si>
+  <si>
     <t>x_TSV</t>
   </si>
   <si>
@@ -322,6 +333,9 @@
     <t>Memory power</t>
   </si>
   <si>
+    <t>Layout and power</t>
+  </si>
+  <si>
     <t>ADC variables</t>
   </si>
   <si>
@@ -409,28 +423,14 @@
     <t xml:space="preserve">x_dim_mem </t>
   </si>
   <si>
-    <t>Layout and power</t>
-  </si>
-  <si>
-    <t>chip size</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>Total stack thickness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +453,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -746,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,9 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,7 +803,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,119 +882,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,21 +1205,21 @@
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
@@ -1257,7 +1233,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>149</v>
@@ -1272,7 +1248,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>1.6</v>
@@ -1286,7 +1262,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>400</v>
@@ -1301,7 +1277,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>1.38</v>
@@ -1317,7 +1293,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>60</v>
@@ -1332,7 +1308,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>149</v>
@@ -1346,7 +1322,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>2.4E-2</v>
@@ -1360,7 +1336,7 @@
     </row>
     <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>0.1</v>
@@ -1374,7 +1350,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1395,9 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24B8C4D-678B-4C61-B3AA-B8253E438C92}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1408,40 +1382,40 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="21" t="s">
+      <c r="C3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>0.06</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12">
         <v>0.04</v>
       </c>
       <c r="I3" s="2">
@@ -1449,17 +1423,17 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="20" t="s">
-        <v>17</v>
+      <c r="B4" s="21"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>0.06</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I4" s="2">
@@ -1467,10 +1441,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="20" t="s">
-        <v>12</v>
+      <c r="B5" s="21"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>5.0000000000000001E-4</v>
@@ -1485,10 +1459,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="20" t="s">
-        <v>13</v>
+      <c r="B6" s="21"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>5.0000000000000001E-4</v>
@@ -1503,48 +1477,48 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="B7" s="21"/>
+      <c r="C7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="B8" s="21"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="20" t="s">
-        <v>12</v>
+      <c r="B9" s="21"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>1E-4</v>
@@ -1559,10 +1533,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="20" t="s">
-        <v>13</v>
+      <c r="B10" s="21"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>1E-4</v>
@@ -1577,12 +1551,12 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="61" t="s">
-        <v>1</v>
+      <c r="B11" s="21"/>
+      <c r="C11" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1597,17 +1571,17 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="20" t="s">
-        <v>12</v>
+      <c r="B12" s="21"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>9.6900000000000007E-3</v>
       </c>
       <c r="I12" s="2">
@@ -1615,17 +1589,17 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
+      <c r="B13" s="21"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>3.6000000000000001E-5</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>9.6900000000000007E-3</v>
       </c>
       <c r="I13" s="2">
@@ -1633,23 +1607,23 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>79</v>
+      <c r="B14" s="21"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>11</v>
+      <c r="B15" s="21"/>
+      <c r="C15" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1657,166 +1631,166 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="20" t="s">
-        <v>3</v>
+      <c r="B16" s="21"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="20" t="s">
-        <v>14</v>
+      <c r="B17" s="21"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="E17" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="30" t="s">
-        <v>4</v>
+      <c r="B18" s="21"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="20" t="s">
-        <v>15</v>
+      <c r="B19" s="21"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="1">
         <f>(70*5/1600) * 0.5</f>
         <v>0.109375</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="20">
+      <c r="D26" s="45"/>
+      <c r="E26" s="12">
         <v>10</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="57"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="45"/>
       <c r="E27" s="2">
         <v>0.01</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="20">
+      <c r="B28" s="21"/>
+      <c r="C28" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="12">
         <v>1</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="24"/>
-      <c r="C29" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="20">
+      <c r="B29" s="22"/>
+      <c r="C29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="12">
         <v>10</v>
       </c>
       <c r="F29" s="13"/>
@@ -1845,7 +1819,7 @@
   <dimension ref="B2:K65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,75 +1837,75 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="62"/>
+      <c r="B3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="45"/>
+      <c r="C6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="16">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F8" s="12">
@@ -1939,25 +1913,26 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1.4999999999999999E-4</v>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="16">
+        <f>block_layout_specs!C7-SUM(chip!E10:E12,chip!E38:E41)</f>
+        <v>5.5800000000000001E-4</v>
       </c>
       <c r="F9" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="16">
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="F10" s="12">
@@ -1965,12 +1940,12 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="16">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="F11" s="12">
@@ -1978,12 +1953,12 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16">
         <v>1.8E-5</v>
       </c>
       <c r="F12" s="12">
@@ -1991,97 +1966,95 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="32">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="17">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="16">
         <v>9.6900000000000007E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="17">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="16">
         <v>9.6900000000000007E-3</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="16">
         <v>1.8E-5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="16">
         <f>E18*2</f>
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="28">
         <f>E18*2</f>
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="12">
         <v>0</v>
       </c>
       <c r="G21" s="2">
@@ -2094,89 +2067,89 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="38"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="29"/>
       <c r="F22" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="63" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="35">
+      <c r="F27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2184,236 +2157,233 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="41">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="31">
         <v>0</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="62" t="s">
+      <c r="B33" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="45"/>
+      <c r="C36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="16">
+        <f>block_layout_specs!C5</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F38" s="12">
+        <v>2</v>
+      </c>
+      <c r="H38" s="27">
+        <f>SUM(E10,E12,E38)</f>
+        <v>4.1000000000000007E-5</v>
+      </c>
+      <c r="K38" s="27">
+        <f>SUM(E38,E39,E41)+SUM(E9,E10,E12)+E8+SUM(system!E16:E17)</f>
+        <v>5.1699999999999992E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="F39" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="16">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1.8E-5</v>
+      </c>
+      <c r="F41" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="45"/>
+      <c r="C43" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="62"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="17">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="F38" s="33">
-        <v>2</v>
-      </c>
-      <c r="H38" s="49">
-        <f>SUM(E10,E12,E38)</f>
-        <v>7.1000000000000005E-5</v>
-      </c>
-      <c r="K38" s="49">
-        <f>SUM(E38,E39,E41)+SUM(E9,E10,E12)+E8+SUM(system!E16:E17)</f>
-        <v>4.7919999999999994E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="17">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="F39" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="17">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F40" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D44" s="45"/>
+      <c r="E44" s="16">
+        <v>9.6900000000000007E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="16">
+        <v>9.6900000000000007E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="45"/>
+      <c r="C46" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="45"/>
+      <c r="C47" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="16">
         <v>1.8E-5</v>
       </c>
-      <c r="F41" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="17">
-        <v>9.6900000000000007E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="17">
-        <v>9.6900000000000007E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="17">
-        <v>1.8E-5</v>
-      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="16">
         <f>E47*2</f>
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="37">
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="28">
         <f>E47*2</f>
         <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="11">
         <v>0</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="12">
         <v>0</v>
       </c>
       <c r="G50" s="2">
@@ -2426,80 +2396,78 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="38"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="29"/>
       <c r="F51" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="57"/>
-      <c r="C52" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="17">
-        <v>9.9999999999999995E-7</v>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="16">
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="17">
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="16">
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="17">
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="16">
         <f>E53*2</f>
-        <v>1.9999999999999999E-6</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="37">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="28">
         <f>E53*2</f>
-        <v>1.9999999999999999E-6</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="32">
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="11">
         <v>0</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="12">
         <v>0</v>
       </c>
       <c r="G57" s="2">
@@ -2512,12 +2480,12 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="38">
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="29">
         <v>4</v>
       </c>
       <c r="F58" s="1">
@@ -2525,101 +2493,125 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="57"/>
-      <c r="C59" s="63" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="45"/>
+      <c r="C60" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="45"/>
+      <c r="C61" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="57"/>
-      <c r="C60" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="32">
+      <c r="F63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="57"/>
-      <c r="C61" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="35">
-        <v>0</v>
-      </c>
-    </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="33"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="41">
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="45"/>
+      <c r="C65" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="31">
         <v>0</v>
       </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B4:B29"/>
+    <mergeCell ref="B34:B65"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C58"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E23:J23"/>
@@ -2636,32 +2628,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B4:B29"/>
-    <mergeCell ref="B34:B65"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2689,30 +2655,30 @@
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="15" t="s">
-        <v>19</v>
+      <c r="B3" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>73</v>
+      <c r="B4" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="42">
+        <v>71</v>
+      </c>
+      <c r="D4" s="32">
         <f>1/(2.25*0.0001)</f>
         <v>4444.4444444444443</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12">
         <f>1/(1000*0.0001)</f>
@@ -2720,19 +2686,19 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="33">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12">
         <f>1/(1000*0.0001)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D7" s="12">
         <f>D5</f>
@@ -2740,9 +2706,9 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="12">
         <v>300</v>
@@ -2761,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FB4D5F-04D5-4A61-BAE3-D4E4D4635403}">
   <dimension ref="B3:E15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2771,140 +2737,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="63"/>
+      <c r="B3" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>63</v>
+      <c r="B4" s="45" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1">
+        <v>77</v>
+      </c>
+      <c r="D4" s="35">
         <v>100</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="12">
+        <v>78</v>
+      </c>
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12">
+        <v>36</v>
+      </c>
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="12">
+        <v>79</v>
+      </c>
+      <c r="D7" s="37">
         <v>1</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
-        <v>330</v>
+      <c r="E8" s="36">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="12">
+        <v>82</v>
+      </c>
+      <c r="D10" s="37">
         <v>0</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="12">
+        <v>83</v>
+      </c>
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="12">
+        <v>84</v>
+      </c>
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="12">
+        <v>85</v>
+      </c>
+      <c r="D13" s="37">
         <v>0</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="12">
-        <v>27.8</v>
-      </c>
-      <c r="E14" s="11">
-        <v>99.5</v>
+        <v>86</v>
+      </c>
+      <c r="D14" s="37">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>73.73</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12">
+        <v>87</v>
+      </c>
+      <c r="D15" s="37">
         <v>1</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2921,7 +2887,7 @@
   <dimension ref="B3:C44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2931,317 +2897,328 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>86</v>
+      <c r="B3" s="33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="43">
-        <v>3.0000000000000001E-5</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="43">
+        <v>91</v>
+      </c>
+      <c r="C6" s="39">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="40">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>90</v>
+      <c r="B8" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="43">
-        <v>9.6900000000000007E-3</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="39">
+        <f>0.001*9.68697225775221</f>
+        <v>9.6869722577522105E-3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2.49E-3</v>
+        <v>94</v>
+      </c>
+      <c r="C10" s="39">
+        <f>0.001*2.48774333462549</f>
+        <v>2.4877433346254902E-3</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="45">
-        <v>199.72</v>
+        <v>95</v>
+      </c>
+      <c r="C11" s="34">
+        <v>114.85</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="45">
-        <v>5.05</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
-        <v>123</v>
-      </c>
+      <c r="B14" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="B15" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="43">
-        <f>0.1*0.001</f>
+        <v>99</v>
+      </c>
+      <c r="C16" s="39">
         <v>1E-4</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="43">
-        <f>0.1*0.001</f>
+        <v>100</v>
+      </c>
+      <c r="C17" s="39">
         <v>1E-4</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18">
+        <v>101</v>
+      </c>
+      <c r="C18" s="34">
         <v>660</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19">
+        <v>102</v>
+      </c>
+      <c r="C19" s="34">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20">
+        <v>103</v>
+      </c>
+      <c r="C20" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="51">
-        <f>0.208154*0.001</f>
+        <v>104</v>
+      </c>
+      <c r="C21" s="39">
         <v>2.08154E-4</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="51">
-        <f>0.001*0.002981</f>
-        <v>2.9810000000000003E-6</v>
+        <v>105</v>
+      </c>
+      <c r="C22" s="39">
+        <f>0.001*0.00298105374508714</f>
+        <v>2.9810537450871402E-6</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="51">
-        <f>0.001*0.003813</f>
-        <v>3.8130000000000002E-6</v>
+        <v>106</v>
+      </c>
+      <c r="C23" s="39">
+        <f>0.001*0.0111390908329962</f>
+        <v>1.1139090832996201E-5</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="50">
-        <v>0.1502</v>
+        <v>107</v>
+      </c>
+      <c r="C24" s="34">
+        <v>8.5500000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="50">
-        <f>0.001*6.75</f>
-        <v>6.7499999999999999E-3</v>
+        <v>108</v>
+      </c>
+      <c r="C25" s="39">
+        <v>6.96E-3</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="50">
-        <f>0.001*0.25</f>
-        <v>2.5000000000000001E-4</v>
+        <v>109</v>
+      </c>
+      <c r="C26" s="39">
+        <v>2.4000000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="50">
-        <f>0.001*9.14851</f>
-        <v>9.1485100000000003E-3</v>
+        <v>110</v>
+      </c>
+      <c r="C27" s="39">
+        <f>0.001*9.34137889215771</f>
+        <v>9.3413788921577097E-3</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="50">
-        <f>0.001*0.33846</f>
-        <v>3.3846000000000001E-4</v>
+        <v>111</v>
+      </c>
+      <c r="C28" s="39">
+        <f>0.001*0.345593365594492</f>
+        <v>3.4559336559449201E-4</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="50">
+        <v>112</v>
+      </c>
+      <c r="C29" s="39">
         <f>C10</f>
-        <v>2.49E-3</v>
+        <v>2.4877433346254902E-3</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="50">
-        <v>0.35158046408625004</v>
+        <v>113</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0.35158</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="50">
-        <v>4.4713770097656251E-2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C31" s="34">
+        <v>4.471E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="s">
-        <v>111</v>
-      </c>
+      <c r="B33" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="43">
-        <f>C16</f>
+        <v>116</v>
+      </c>
+      <c r="C34" s="39">
         <v>1E-4</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="43">
-        <f>C17</f>
+        <v>117</v>
+      </c>
+      <c r="C35" s="39">
         <v>1E-4</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36">
+        <v>118</v>
+      </c>
+      <c r="C36" s="34">
         <v>11520</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37">
+        <v>119</v>
+      </c>
+      <c r="C37" s="34">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="46">
+        <v>120</v>
+      </c>
+      <c r="C38" s="34">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="43">
-        <f>0.001*0.0285363277244988</f>
-        <v>2.8536327724498803E-5</v>
+        <v>121</v>
+      </c>
+      <c r="C39" s="39">
+        <v>2.8500000000000002E-5</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="43">
-        <f>0.001*0.02969</f>
-        <v>2.9690000000000002E-5</v>
+        <v>122</v>
+      </c>
+      <c r="C40" s="39">
+        <f>0.001*0.0296928290681283</f>
+        <v>2.9692829068128301E-5</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="43">
-        <f>0.001*0.01754</f>
-        <v>1.7540000000000001E-5</v>
+        <v>123</v>
+      </c>
+      <c r="C41" s="39">
+        <f>0.001*0.0189436459915414</f>
+        <v>1.8943645991541399E-5</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="52">
-        <v>2.2000000000000001E-4</v>
+        <v>124</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1.6000000000000001E-4</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="52">
+        <v>125</v>
+      </c>
+      <c r="C43" s="39">
         <f>C10</f>
-        <v>2.49E-3</v>
+        <v>2.4877433346254902E-3</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="52">
-        <f>0.001*6.99922892312672</f>
-        <v>6.9992289231267206E-3</v>
+        <v>126</v>
+      </c>
+      <c r="C44" s="39">
+        <f>0.001*7.19922892312672</f>
+        <v>7.1992289231267203E-3</v>
       </c>
     </row>
   </sheetData>
